--- a/DZ_3.xlsx
+++ b/DZ_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Семинары БД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Семинары БД — копия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C9A92A-AD66-47D0-9403-42307A8EA77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CFBB8C-044F-4117-B060-00F90BCC6C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E88F91C-27FE-4BDF-9ADB-60A27864D022}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Ученики</t>
   </si>
@@ -151,13 +151,75 @@
   </si>
   <si>
     <t>староста, массовик, главный по дисциплине</t>
+  </si>
+  <si>
+    <t>— Место ученика — это ряд, парта, вариант.</t>
+  </si>
+  <si>
+    <t>— В течение одного дня у разных классов бывает несколько уроков.</t>
+  </si>
+  <si>
+    <t>— Создайте минимум 3 таблицы: «Кабинет», «Ученик» и сводная таблица, где отображаются парты и ученики.</t>
+  </si>
+  <si>
+    <r>
+      <t>— Используйте поля «начало</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C2D30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>урока» и «конец</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2C2D30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>урока» с типом данных </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF2C2D30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TimeStamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2C2D30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 3. Создание структуры базы данных.</t>
+  </si>
+  <si>
+    <t>Опишите базу данных для школьного кабинета, в рамках которой можно фиксировать, кто и в какое время сидел за той или иной партой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +227,29 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,11 +302,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -245,13 +332,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -299,13 +386,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2346960</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -353,13 +440,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -703,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844E7B30-632B-4DE5-831A-3A886585372F}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,310 +805,428 @@
     <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D14" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D16" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K16" s="1">
         <v>3</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="1">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="1">
+        <v>14</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K26" s="3">
         <v>3</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K27" s="3">
         <v>30</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>